--- a/results/rtx 3090.xlsx
+++ b/results/rtx 3090.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZi%2F2c2kNBhkUM1wMwWc0Lynna0BsgeImjuld%2Fcu5x9agnCN7wnVW4jV3TOV9jjpwkiycWc46zwJ299sFQSV83uaVem6VAyAf4bXYTN%2BlYZWevtSIT3d0XD067T5u8mIgJiL2UQ3fsiGblLQDrqpywpblorczrt5s8x0sMZ%2BjBd4%2Bo%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZitEVsw37PZLPZ%2FRJY2lBghy89F8H6269yZSWQ%2FYsuBMJ2nXAzR4r51MWuozUK1EVSSAs6%2F3y%2FhNWrXj%2BEQebVupR%2BjtV37iU23EukDsSJeiv8bDKwheoPwMpLyH4UXXmK8lnIZttjICVqwNBBUGYQEygoqjdg2pFPmC46qmiPfDc%3D%7Ctkp%3ABk9SR-bXy_WiYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJ7wqz4M3I6S48zae1b9i8u4gKC8Ru7Z92rdc2%2FflIQNmca9bn5Nb7buTeJk6uAiLyD5oZ%2F6ByD2LlS2OesqWjjG9jLkaJTdGM9EVYIH8EwZ6u1bdH4kqqPbiTO9JDwZlKATGvN3e7WWzOHg8FG1tvIcSFWrN%2Bniwncpr4WvAnRqU%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJVbv%2FQ93QE%2BERhJ9jCf3hxXJqWq%2Bu8GvmoJDxoMEVWDUp5FCu%2FT08xznnr5pmhSpIiNVtfzXzB2hSqjBKCOBOavELAn3j08ydJlGKwkelJOyY11rpIuZuS44x4uGB%2F5C4%2BCFsSfNQG3vNPZntcz5Y%2FuePWZVz7iGbTEvBmTEXPRg%3D%7Ctkp%3ABk9SR-bXy_WiYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFQfpzDE4sjmZjvFMLIYK3PDviSfnul3TDFzYThKmFA1DCH0IQS4pIqB%2BL46P%2FsYzZ%2BDVDdYFcJnVZzTlOgZL8Zu6QKVtgDfBic9YrPGmuN9nZMUyFHnKh6Zd9eUVrq5j42afV9ld7vZ5ugU06jn9%2FlNo9TgnLFEyAgYGda4t6%2BQ4%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFSFWIoISExm3v%2Fy92U4%2F1edGjo0Ham1qxxyyGo4A44eEcbkyOxY4wIqauZWM2YwDgoB2DOPfPLoaZIecn800D3UKqkh4wIjgylrLuTb4jGUZsunBQkQMiEz3AxLE7aKNFd6SZW7wCtXJ1S5gCw6yx3WA40gn95q5nvnL7mmFwQV0%3D%7Ctkp%3ABk9SR-bXy_WiYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlK0XZ5d%2BEL1Iot19re8nIX%2F4eAwe4cHQ7BcCkNDA1aeYBsHzZlcqJQlZeGtNaRiWH8Svvlx2%2Fn9zLHLpjhxb1dN4gzqe9PcSbmYzNEv0IYVquwdkN7GsHCRvnx%2FjiNY3a7xMo3vAM34NBygxJdvYU9tfrPlUG0g2biJRXTySiu8Q%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWldtceAsXcXtUmzm9cxiahyEEAZBauk7Vzj%2FETDz0bp0gzxdOB44IsgYSydj%2BT8kDLbhVlctkZEBz7cm%2B%2FTYgu%2BubQkGewyEiPYd70x%2BBN4ECk9Z9EB61d6M99%2Bmwo5naqcl%2F8H0%2FnjfRVo7lxAk3mjXoVcNC2UEavFSOiZuBFPos%3D%7Ctkp%3ABk9SR-bXy_WiYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BslHoYOWqLo0iaDBKSzWmQ7k94%2FVCnzcSqDt9iQ41f8VjBvsmH5vU%2FE7WzR8lVYgI2QlNUBUYzo06pC4jaWmVKuGdSTZW1XyCqo6kQZXZLA5g%2FmU6D5LCa9DCu3O%2F5whPFvriRz5pQcvEW33fWAODv%2BPp0aR3Mvvh%2BkoGenDkcpG8%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BsCacU4pTaKErl%2FchqBbVl1j3S7qYQ9k0w7iGLQWkfwmMa0HDWJjV%2Fv4kHr0PoZxEMRfCBB3a160cvgpCWu5cmUyZ9vmUjl8EHciom4rNR9Wxfdk%2B1WYUTREuDs0THMNB0PRVE2Ubkke7I%2FMjN0faD3ptTvOL25OmIF6S1raq48r0%3D%7Ctkp%3ABk9SR-TXy_WiYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLUUkSenVPXZDtg%2F2gnp1gjWhxbhPPxJlyBRjRSFWGBdSLUQMm4NLXsEXWcGMOpAJ%2FtwTKl%2Fp80s5poZzLH8tVN2vEbU7kWPW35zr5NKtgqHKzfz8UreiYVEu7MOUbxuWzKFOiMbqg1Ei0gHgf275BQs4HDEjPnRAOVkQJ08m1mdc%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLC7nnoTYNMKQ2eR6%2F%2BUmGNZGv9bx%2FATNs9zEHb6G%2FBwa8HB7L6eFXqT3tdZxkZ6xlvXYF%2FjSPmLPaPj%2B1PGxpmw13EH2NVgEFgtkU1A8MUBUj974h8J1ESXmJlbbAF5%2BlbFSapSX3Qhoe%2BS0jGWeX8e%2BI1weH7w5BmUPZBLwNmW8%3D%7Ctkp%3ABk9SR-bXy_WiYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800:g:CGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatftaMM7RC4EeFFTXYe1qkHA8c99cfIL5EI7UfX40P%2F%2BfzTUSGsn1l36VBm2za83bl8pflCH%2FkF0VZ8DTCm%2FVOIV6i1ygLAUzXx%2B8FJ4buP8n1w43WQeZm%2F7H5zJV%2FBDty3a8vA05XeoYDIZimFaC8O2THd57qHxFOP5M7oCsjaImA%3D%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800:g:CGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatfS7gIxE7oK9%2BTmlLcKkRs4CHJFU4nYLP2v5u%2FHQ7WOvoYO83rH%2FhcNo8c9pnCG5iKBuHjq62gTWE6gCNplXL0QowyXMKX8wO4qlJNK%2F1pZgB856%2BtIfhI5EcyQcQjzxRl3i%2Ffv6mo4PUh27yRFO23yCHZIVbtTfDjnGIMaImD5nw%3D%7Ctkp%3ABk9SR-TXy_WiYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869:g:O0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTAn23KwLCwAH%2FF0G9MP6cHmd2jbk8urldTrZk0ELxz%2FNWIEAn3yklVhLtXxBZ0yTZsXUaXLc12Rl79pdoT8lv3W%2FF6oIYkvnRh2tQtnNrKgGfU%2Bw46WWhY%2B%2F%2F5j5jBDvREvPZW5IDtGC5ncMODyB6msgFg9a7a1bySx5UTH33nH%2Bw%7Ctkp%3ABk9SR4yU6fKiYQ</t>
+          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869:g:O0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTApOuBhKJKpBFOVxjmx2xqkns%2Bb98T%2BNLqUOQGSNihloNBK9O4ERA2Uv8aRlsHlKFtIIigGwRtLATfW6KCwibA22D9EocWhSyaQ8PQ1FhyL9AgrMHd9umfN0a9WZAoCjbbH55SGL1SwkBE2nF22CZlODggNwXtZHqaAaA%2F6ik0VZx%7Ctkp%3ABk9SR-TXy_WiYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/results/rtx 3090.xlsx
+++ b/results/rtx 3090.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZi21UmUdrbh1ovmlLL%2BqQS%2F5O%2BQLVVCp%2BD897jZHqwq4tIkdr%2Fr%2FAEFoHeDZ03EbKAvcho7mXuu3bfPypvasDNaPiquV0DPJPuwQOCUK3vtRsQ5IlTI%2FWz1dAHh6%2B%2B0wtfB0C%2BXNyLtGWMQispWkAPBEyf%2B3KokCa9Q5FX35fuVO8%3D%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiMNTb5SdJLnxdJzJqe2N5LQ6uFDK8Am3C4lKAQ731gjS13S5Q%2FsW%2FQW2Go5dRy7GCpLpI1FHhSA5GSwRnOomqiyEAfA2fiZrFywM0C%2FdN2eIOEdk7I7%2FfhS0P0LR2tik%2FIaW9R4Wv93Cw8r8ES31qR6hsuV1CQG9fzZloblCO%2Fjc%3D%7Ctkp%3ABk9SR5a5yoOjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJlucNK%2FPdbgYW5kcHkyPtB6SpSxqrstUgjkjxRaNm2NursQTkWhaCGcX2jpWgD%2B8ci8uDwpBe5J4gL1RFNlivahH6qxuqaUiPHb1b3jbgbhCdNmVC4aSZJiiKO0eCG8ZGIl9iFzD33eMimo9cGuXqFO9I9JGX2HcQfDHxtB%2BM8L0%3D%7Ctkp%3ABk9SR5is_fWiYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJDCVoJUAHvLHe75jQlbjubpX%2BEZkVwG3PfA6pcnVDGeTB7phpw3FOuCmHgpSGK5VolV4SgXvsxIjbT1cRcBiy%2FydRTRYw0b9ayIFuzUJGWzqkz4m3DmJGkN0c0Fn81EXmhr0AqsfFW7MX05FFE9IyME7wSXtoq%2Fhbb9F725pOlak%3D%7Ctkp%3ABk9SR5a5yoOjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFfPSbZlkIhy9Y4s25T9YKtVNROopR%2Bhc0wtNMQLuiu%2B6F%2FUEs5JYqKT7pwb8pjPJ3UK0k9CrtRAYFALSjQenrsnDNHu458KIzIvabXKA5G%2FTpfVgJn5ZyT9Cs%2Bn%2FUsltIw5sZAH%2Bh%2F1oGqeXQHmZ5VazFaCHDs9KnLpgvB6CpHI4%3D%7Ctkp%3ABk9SR5is_fWiYQ</t>
+          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFUix04Cb3aJSVznyfobyrrwR2KK8JJXjDyxv9mxERKstEb4E0idJ5dJPSZqdKz%2BBtBSj6ePw9EVqGdmXGl5ZdSgAEhXWcBgP9UR%2FmLH5Pg6Msg5O2ewTbI3qRnKyaOcnf6e9i1%2Bqzlr8vTbBey9eA5%2BZqgjpf2kNsGliTn8RwXGo%3D%7Ctkp%3ABk9SR5a5yoOjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -614,7 +614,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlHTcHFCkpm%2FkxIdddN8JgZ9OfrHFRoXgW0on0P2rW8aK%2BMahxOuz5Y1vUZekx2iOdQVXCo4TdcihyvVhkwVMBkiU8%2FqLbfoGnWbPqbAwLTxTJR4wUdNGTcpF6UQTtT1gtJYvL3jkjCnv2JEd6NmSFnB2uGoRtFWvgcl%2B6YkRkis8%3D%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlxEKnaW3UOPVbeAQRMIx5ut2k96F%2B5TFYNwxdz4XsSfvGHFnPIHtrVjs7%2FAuyNVLmMr%2Fuh0k%2FL8IT%2B3JR%2BdoykCr9dDTWCB1Uu819ogi6QUGntkybplAR13Px3vu4eWuOYNHMsDtMfKiHM0svyTIH%2FCHyAk6WSrXuxNfmxE4w1kY%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BsxXC6G9ZEKrmosFrjgFDEaUxG%2BmKDlNCPh%2Bgek1ash4Nf%2BzF9DB8q1pBlVPGCzBQevjrUaXl8m3oXgrkwcxRZ02GOYEPKLySjljjB1D7eLY18GqOLHcBTJmjWmwDqeNVz1dopE6X%2FzyJboWUOOXSxJauaPk3xojM8CcU1bwJXii4%3D%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2Bsrsmwzb108wpLngfLv3Bqxp5ha8fPwaaNCAKEU%2Bc3w6keZpn9nNc3DXVIVzfAAluXKimxeRRWyspUJdf8bXsoNzOxM34vurEFEdUqyOazH5xp9lXmzvb%2FkMFvCu75ampoJsxW%2BqJSCE%2FvGHP34hcGI8jQV2ztUC8tQddaNRRlHBQ%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FoexRWSyWAS2IPoSk2arC0ljX5YiAB2Ecbn735A%2BCWBTeKy54VzYBdr%2BZk%2BvLOxXztHMb1oD%2FJvcpUuj8MaR3lU%2BlT9QvcyIymuRw5aWmVUyL0EkAgZgp6rnmtji3zniBLBAINnhuE5IbPaCBx0pPoSAp1lqOmjJzOpiSDi3XA7Bk%3D%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FoSPlsAqiAfXvU2L0uFanrqYDfoecVKJ2jPpo%2Bobweud5t158DgsjASEyH5HIQ4CTRSV1AZJhK4dJK7k7eEvgUK0xMFOhE%2BJ6gUbmnt8P5LkjY9nOnGS%2BbYR5wucTfOGkFxkJmJ1VijlWTeISuT5Z%2FHUDOFdCAMOvfW%2BuCkcwbEq8%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -746,7 +746,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLFYga5bVxRctyzimbLQca6LoscMK9UeDOkE2%2Ft0hnlRGHyr%2BpjI5GNeYNbzYNs3EOTK1vqe0t9yAICzVmH1XS2Jkg4KmYJtWwBFuQBHyxqaVOR8AGx1gTFot%2FVPwTpuZx9Mtq4Tm9bIX7daJsZwL7QHURn81%2BVCPAzabV6NF3Dec%3D%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtL4wvbDtcu%2BJGorPyjeqxAL4WaSRk7MK6g6%2BrwwNJ4Y%2Bhf3X3%2BKA7yiU3Nt7zfbT9f%2Bz6%2Fg%2FfopnmwCdrM7KPwxBMsJpwa1K19oMpWZ68lJAmh0ReOVmfkex5%2BLu7syy8WMDj63O3aJyllRVRhukOuUKAcFLDfmvyfI17PgyeZCcU%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800:g:CGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatfVXMt31uGet5jiH2Hg1PrcviS2OdZx7SaSI7hwgHHtsCLYOWYsufYKFUzXMYXm0N4F2PMKBbZxg9xFdMP%2BPNHC0z5U7fVR3fPSX6KYslGWJ7C7br1sK%2B47Yr78N55%2F0TAA9b4G82niWfIDAlpfY%2Brhqb6U3cNoOyymgwntv8MkVk%3D%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800:g:CGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatfYGPRq3jBglw3iW3tmWjYyliAzbZy%2Baa5QfJDBVsp0f2F9%2BiXpZV01FspgwUM9yzGXaGR86zSPgtzBs2eVgk4s%2Fder81jq5VgJ9nxvPQA4m3lN5On8%2BBiAg4apN%2B1DNrO3V8iHMWn0PEwVzHVj%2FLEc2Opnr2Sq1vrM78UVfD9XqU%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -834,7 +834,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869:g:O0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTAl7HRyAULrrWkVSDuB%2FZMpfJ9Vi8FYwwVqUgv4iachKmjyOHiiNlxaxV%2B2hvOo8Gltdy0PDYyFcVSJFp%2BEYkQ96obkxr2%2FBMEIx4ecNxK0n8syGuBafy9gaLPHkvadozTJVnNWi0Ag13rlzeCov8Z4VVMP3wlvR76aaBz4mXnUjJ%7Ctkp%3ABk9SR5as_fWiYQ</t>
+          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869:g:O0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTAsQblysaVOKMGVcMwDYMPazmvUN2CMTqMLi6cbw%2FZrPsnCcpgmM1MnwGD8SVBzl3ZLqFioyQz4enAvmERNZq0InhG0hAvWmHEDj8n0EwyA65Bkz4bPq1p%2Flkcz7ySBIAN1Dl85s%2Bb%2BNY1YBI7zyjA8yXwGC4Q2K7yTN2JYlTzd4V%7Ctkp%3ABk9SR5S5yoOjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/results/rtx 3090.xlsx
+++ b/results/rtx 3090.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,15 @@
           <t>Purchase Options</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time Left</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -491,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiMNTb5SdJLnxdJzJqe2N5LQ6uFDK8Am3C4lKAQ731gjS13S5Q%2FsW%2FQW2Go5dRy7GCpLpI1FHhSA5GSwRnOomqiyEAfA2fiZrFywM0C%2FdN2eIOEdk7I7%2FfhS0P0LR2tik%2FIaW9R4Wv93Cw8r8ES31qR6hsuV1CQG9fzZloblCO%2Fjc%3D%7Ctkp%3ABk9SR5a5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZijAOF4R4RqHwJ8flJ8tNiqbIXUGxMe9%2Bq7hmmQABiBUBL%2Br6H%2FKWN7pJp%2Fso0%2BjT0JydlGbiWfTwy%2FgBiNp7TCfsBloQv%2B8v9Y4fSkJDWT%2FBDpgnlA82E3iGhiVyCvO%2FUqBJ2J4crrDBv0Lkp71GyzY%2BbbM%2BuM3ChDI0RcmtxT1k%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,6 +526,11 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>ou Oferta direta</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
@@ -530,32 +540,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
+          <t>Novo anúncioZOTAC GAMING GeForce RTX 3090 Trinity 24GB GDDR6X Grafikkarte, OVP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJDCVoJUAHvLHe75jQlbjubpX%2BEZkVwG3PfA6pcnVDGeTB7phpw3FOuCmHgpSGK5VolV4SgXvsxIjbT1cRcBiy%2FydRTRYw0b9ayIFuzUJGWzqkz4m3DmJGkN0c0Fn81EXmhr0AqsfFW7MX05FFE9IyME7wSXtoq%2Fhbb9F725pOlak%3D%7Ctkp%3ABk9SR5a5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/125665784206?epid=6040754547&amp;hash=item1d4243b18e:g:2uoAAOSwmpRjg4lj&amp;amdata=enc%3AAQAHAAAAoDhlaLm2H3jd8Zp36gW8SzxHTFTi6AUi%2FX4SQhEoSzYIch%2FrYKmzJ0AH2bxmNt3yf7%2BZc2FckH67DD08WKgHcXz0AAULaDCLnYVerpFhuiuKe5TbXHeKv8ggxShY0Bpok61MoYlnHgcN4yfxHOKuha%2Fkqv%2BsvP1m7xtL%2BugwkPMeqPRvRFWMcns%2Fh66b38Wsoy6oLAkhX0KnwJuP%2FMKFNQo%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>de Bulgária</t>
+          <t>de Áustria</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -565,12 +575,17 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -579,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFUix04Cb3aJSVznyfobyrrwR2KK8JJXjDyxv9mxERKstEb4E0idJ5dJPSZqdKz%2BBtBSj6ePw9EVqGdmXGl5ZdSgAEhXWcBgP9UR%2FmLH5Pg6Msg5O2ewTbI3qRnKyaOcnf6e9i1%2Bqzlr8vTbBey9eA5%2BZqgjpf2kNsGliTn8RwXGo%3D%7Ctkp%3ABk9SR5a5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFxnvujk340greJFjM%2FIyorauObYrl3O4bkjE2Ys5MkLRD9EiXX7maVkmCvhJqzaOpMT6Dl9ZfnASFtfeu1KeLAYjqZ1GTa04yGEmzzfLQUyOu98ZWzpZMcGZcbFo8iIpaevQl0n6r7DatNSkE0pCNsaha5kqb4mHKXTtYqsjc%2FjE%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,21 +624,26 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GeForce RTX 3090 Gaming OC 24G Grafikkarte Nicht LHR version!!</t>
+          <t>Novo anúncioAsus ASUS Turbo NVIDIA GeForce RTX 3090 24 GB - Free Delivery, 14 Days Return</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlxEKnaW3UOPVbeAQRMIx5ut2k96F%2B5TFYNwxdz4XsSfvGHFnPIHtrVjs7%2FAuyNVLmMr%2Fuh0k%2FL8IT%2B3JR%2BdoykCr9dDTWCB1Uu819ogi6QUGntkybplAR13Px3vu4eWuOYNHMsDtMfKiHM0svyTIH%2FCHyAk6WSrXuxNfmxE4w1kY%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/165836691318?epid=2318009997&amp;hash=item269ca31776:g:r3wAAOSwHEljbjt~&amp;amdata=enc%3AAQAHAAAAoKAZ1Ah6YYEz5DzMIzzbUXdX1AJnWHbuRZdz3asCL9HltGc9SEQB88l4N48cWQmivOYNo%2BzjmbRc%2FFr1c6YurAYiZZovhlpqA3n9PYBcVAmPW5y45okq6PgvyeF48c9HjPR2c5Sw3HiCw4Rask%2F56UlC9e44J9%2FgjcUMnBOtUeMWoiAKSuZQBHmo6AHMujkL0PIivOj8aJ9eBOsdV7ZwExM%3D%7Ctkp%3ABk9SR6aCuLWjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,18 +652,20 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>555</v>
+        <v>400</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Lituânia</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>24</v>
+          <t>de Holanda</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Shipping cost was not specified</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>579</v>
+        <v>400</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -653,41 +675,46 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>6d 15h restantes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 Suprim X 24G   GDDR6X Grafikkarte</t>
+          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2Bsrsmwzb108wpLngfLv3Bqxp5ha8fPwaaNCAKEU%2Bc3w6keZpn9nNc3DXVIVzfAAluXKimxeRRWyspUJdf8bXsoNzOxM34vurEFEdUqyOazH5xp9lXmzvb%2FkMFvCu75ampoJsxW%2BqJSCE%2FvGHP34hcGI8jQV2ztUC8tQddaNRRlHBQ%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJ9oaAGjeJJEUCRmwXIlKJCZfyxOQRy0nvUoDKRFaJNhics3QOdFVBbbVqEa917LM5iNivrnkf%2BM1UADlMa0LdlHCXQb8mFnkniIlF3jfujDe1raWC5V7cXXk8gIez7vgvlWd3UfjqyKkP5TMQtFarLQo4GbhsX4zH%2Bv9al4F56uA%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>538</v>
+        <v>401</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Bulgária</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>583</v>
+        <v>433</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -697,21 +724,26 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4d 21h restantes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Novo anúncioINNO3D GeForce RTX 3090 iCHILL X4 24GB GDDR6X Scheda Grafica GPU</t>
+          <t>GeForce RTX 3090 Gaming OC 24G Grafikkarte Nicht LHR version!!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FoSPlsAqiAfXvU2L0uFanrqYDfoecVKJ2jPpo%2Bobweud5t158DgsjASEyH5HIQ4CTRSV1AZJhK4dJK7k7eEvgUK0xMFOhE%2BJ6gUbmnt8P5LkjY9nOnGS%2BbYR5wucTfOGkFxkJmJ1VijlWTeISuT5Z%2FHUDOFdCAMOvfW%2BuCkcwbEq8%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlTqqCn7DT%2FHsin%2FPYjokiW3m96erBAl7vqcJ5fl72y%2BnYefSuWNMCyLcoutq1Oh8ytVEdF36YThcbJQx7ZNBTGeGJUXDJZXyTgFpeoTPfdweP%2BlAITz6069yX4goZCio3gc1DsdICCQq9Nboj9UqUpQ%2Bywp1VmXt0kZu8fSGRXj4%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,18 +752,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>de Itália</t>
+          <t>de Lituânia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -741,21 +773,26 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3d 5h restantes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 VENTUS 3X OC 24GB GDDR6X Tarjeta Gráfica</t>
+          <t>MSI GeForce RTX 3090 Suprim X 24G   GDDR6X Grafikkarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtL4wvbDtcu%2BJGorPyjeqxAL4WaSRk7MK6g6%2BrwwNJ4Y%2Bhf3X3%2BKA7yiU3Nt7zfbT9f%2Bz6%2Fg%2FfopnmwCdrM7KPwxBMsJpwa1K19oMpWZ68lJAmh0ReOVmfkex5%2BLu7syy8WMDj63O3aJyllRVRhukOuUKAcFLDfmvyfI17PgyeZCcU%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BsqCM7knXS2y9GpWSg30DYYMe%2FS6QV%2FHeSaAkXaK1B0FkkAV2cq0ctWXqXkVmvdIO48ZCBSiPhMlPfGGDsnJh%2FPROPFne%2FJJ86zJOyStMpPZyuO16XB4pXE9tvAKKj48MZ9lYlorYxOxPIS6biwfclIeeNi6H1UCdmoKe4MmaxGHY%3D%7Ctkp%3ABk9SR6aCuLWjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,7 +801,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>700</v>
+        <v>538</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -772,10 +809,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
-        <v>760</v>
+        <v>583</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -785,41 +822,46 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GeForce RTX 3090 XLR8 Gaming EPIC-X RGB Triple Fan Edition P 24GB GDDR6X **NEW**</t>
+          <t>Novo anúncioINNO3D GeForce RTX 3090 iCHILL X4 24GB GDDR6X Scheda Grafica GPU</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800:g:CGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatfYGPRq3jBglw3iW3tmWjYyliAzbZy%2Baa5QfJDBVsp0f2F9%2BiXpZV01FspgwUM9yzGXaGR86zSPgtzBs2eVgk4s%2Fder81jq5VgJ9nxvPQA4m3lN5On8%2BBiAg4apN%2B1DNrO3V8iHMWn0PEwVzHVj%2FLEc2Opnr2Sq1vrM78UVfD9XqU%3D%7Ctkp%3ABk9SR5S5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FoP6ZkRubwvnjzJP6asE5gBx207vGPR5Q0GVBv4oaXYurFiuy%2FCkciNO0LIO6sEsE41IsD%2BRlD1cHXoZ8AQt%2Ba6Gsn%2BihLvWvh2t2mvUo12OB5ByjUjb5wQdDGeKmaBjXT56BsO8800B%2FBzF6mybTVxr97yiqcJYjK3N2buGmekp8%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Novo em folha</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>756</v>
+        <v>599</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Itália</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>775</v>
+        <v>634</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -829,21 +871,26 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2d 5h restantes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 Gaming X TRIO 24G 24GB GDDR6X Grafikkarte</t>
+          <t>MSI GeForce RTX 3090 VENTUS 3X OC 24GB GDDR6X Tarjeta Gráfica</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869:g:O0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTAsQblysaVOKMGVcMwDYMPazmvUN2CMTqMLi6cbw%2FZrPsnCcpgmM1MnwGD8SVBzl3ZLqFioyQz4enAvmERNZq0InhG0hAvWmHEDj8n0EwyA65Bkz4bPq1p%2Flkcz7ySBIAN1Dl85s%2Bb%2BNY1YBI7zyjA8yXwGC4Q2K7yTN2JYlTzd4V%7Ctkp%3ABk9SR5S5yoOjYQ</t>
+          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtL8EPEhliYkzZtpL68vcxLpSvo7pzbwkteb%2FOSzHg6%2BrMg%2BP4LrSmfZiC0UWbgdsXi3e8%2FdlhoqpS%2FRfwkoexCDnQSoRolYPZW5F6xtSJHi5P59GNAzI%2BMszX%2ByINX62YZoWZfNEPVjOQzryPSwAQsBu7QOylrqmO2XjylR6ITTOc%3D%7Ctkp%3ABk9SR6aCuLWjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -852,18 +899,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>775</v>
+        <v>700</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -873,6 +920,11 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3d 2h restantes</t>
         </is>
       </c>
     </row>

--- a/results/rtx 3090.xlsx
+++ b/results/rtx 3090.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZijAOF4R4RqHwJ8flJ8tNiqbIXUGxMe9%2Bq7hmmQABiBUBL%2Br6H%2FKWN7pJp%2Fso0%2BjT0JydlGbiWfTwy%2FgBiNp7TCfsBloQv%2B8v9Y4fSkJDWT%2FBDpgnlA82E3iGhiVyCvO%2FUqBJ2J4crrDBv0Lkp71GyzY%2BbbM%2BuM3ChDI0RcmtxT1k%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiJ0Hi08CMmVRxcUjgtZk24Tp07LHJ5NjpEM%2FCXsFhh8bG8CpKWh1%2BQgzOuxI8ic68oqAqc2Pq50k%2FgpWvIHZC52OdojIEt6ztS06DGfgdNAAe%2BbBGJMp3KZCXT%2F98GpgRwLNNLkzexMX0fxIB0GATWzW2HchRWjXlVrP%2FSoXiXok%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,16 +536,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Novo anúncioZOTAC GAMING GeForce RTX 3090 Trinity 24GB GDDR6X Grafikkarte, OVP</t>
+          <t>ZOTAC GAMING GeForce RTX 3090 Trinity 24GB GDDR6X Grafikkarte, OVP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125665784206?epid=6040754547&amp;hash=item1d4243b18e:g:2uoAAOSwmpRjg4lj&amp;amdata=enc%3AAQAHAAAAoDhlaLm2H3jd8Zp36gW8SzxHTFTi6AUi%2FX4SQhEoSzYIch%2FrYKmzJ0AH2bxmNt3yf7%2BZc2FckH67DD08WKgHcXz0AAULaDCLnYVerpFhuiuKe5TbXHeKv8ggxShY0Bpok61MoYlnHgcN4yfxHOKuha%2Fkqv%2BsvP1m7xtL%2BugwkPMeqPRvRFWMcns%2Fh66b38Wsoy6oLAkhX0KnwJuP%2FMKFNQo%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/125665784206?epid=6040754547&amp;hash=item1d4243b18e:g:2uoAAOSwmpRjg4lj&amp;amdata=enc%3AAQAHAAAAoDhlaLm2H3jd8Zp36gW8SzxHTFTi6AUi%2FX4SQhEoSzYIRfs3IUfsFu1Txb7hh0k8spA71PcU%2BOK7GhfiSY9kcQb4rGEECTmKUJGLgt%2FXT2TuP%2BS4iL4f0dEVsH3kGUxfo0wIcyPxuCpygwcCLQNQ1p5VyyFQX8guGxLKms0k7%2B5euU054oOAiMVU3It%2B76QqA4KlUOX6o7my9yQ6yjLubFo%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -579,13 +579,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6d 3h restantes</t>
+          <t>5d 23h restantes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFxnvujk340greJFjM%2FIyorauObYrl3O4bkjE2Ys5MkLRD9EiXX7maVkmCvhJqzaOpMT6Dl9ZfnASFtfeu1KeLAYjqZ1GTa04yGEmzzfLQUyOu98ZWzpZMcGZcbFo8iIpaevQl0n6r7DatNSkE0pCNsaha5kqb4mHKXTtYqsjc%2FjE%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnF7AWmMucfLRp%2FA97Sdn0S2klZfgMwodKmuoGiA%2BddouYlwN%2FrVDbzht5qKMqE2jUsHFKqeDGM2vHnKiuqnmR%2FMfay5P2kfhV6CV68Xaqaa7UPi%2BMXGpSsezC9p52Ehgu9JZdqBzpA98bxO7ygnmPciRIDiokUQ9zqlyhuXFEhUqk%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -628,44 +628,42 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1d 22h restantes</t>
+          <t>1d 17h restantes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Novo anúncioAsus ASUS Turbo NVIDIA GeForce RTX 3090 24 GB - Free Delivery, 14 Days Return</t>
+          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/165836691318?epid=2318009997&amp;hash=item269ca31776:g:r3wAAOSwHEljbjt~&amp;amdata=enc%3AAQAHAAAAoKAZ1Ah6YYEz5DzMIzzbUXdX1AJnWHbuRZdz3asCL9HltGc9SEQB88l4N48cWQmivOYNo%2BzjmbRc%2FFr1c6YurAYiZZovhlpqA3n9PYBcVAmPW5y45okq6PgvyeF48c9HjPR2c5Sw3HiCw4Rask%2F56UlC9e44J9%2FgjcUMnBOtUeMWoiAKSuZQBHmo6AHMujkL0PIivOj8aJ9eBOsdV7ZwExM%3D%7Ctkp%3ABk9SR6aCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJj7MLdfsNLxZLpX2BcSVN9xG0alnuKbHD7jiXqQsy3LTdAyHiVc3LCIC9jzXvWNUvOnhv4DtAvRGunUs8RWnniUwijewN15VVfeBASGVfsG56JAp%2F%2FS2QmkkdXLbgQZxHqatxRwzKO%2F0xeh6YM0bGOCL4yWFbIjIg4qou996swu8%3D%7Ctkp%3ABk9SR9bov8WjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Holanda</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Shipping cost was not specified</t>
-        </is>
+          <t>de Bulgária</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -679,42 +677,42 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6d 15h restantes</t>
+          <t>4d 16h restantes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
+          <t>GeForce RTX 3090 Gaming OC 24G Grafikkarte Nicht LHR version!!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJ9oaAGjeJJEUCRmwXIlKJCZfyxOQRy0nvUoDKRFaJNhics3QOdFVBbbVqEa917LM5iNivrnkf%2BM1UADlMa0LdlHCXQb8mFnkniIlF3jfujDe1raWC5V7cXXk8gIez7vgvlWd3UfjqyKkP5TMQtFarLQo4GbhsX4zH%2Bv9al4F56uA%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWl6iUZfL7kh92Mlt0vh%2FPuxnf8QgO7wN9txLGTA2w%2F3e3Urfe6lHo6WGrpSRF1NJz6pmOJv6IJsF4vgoFufzQf%2BkB97JJaLZS7nASicG13R9hstUX6BlTYyNWZwbiW8z0MDramAaTVv2R6S2BNxcHyq7ktl0C1jJJbY9u7QQml%2F2M%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>401</v>
+        <v>555</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>de Bulgária</t>
+          <t>de Lituânia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -728,22 +726,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4d 21h restantes</t>
+          <t>3d restantes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GeForce RTX 3090 Gaming OC 24G Grafikkarte Nicht LHR version!!</t>
+          <t>MSI GeForce RTX 3090 Suprim X 24G   GDDR6X Grafikkarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlTqqCn7DT%2FHsin%2FPYjokiW3m96erBAl7vqcJ5fl72y%2BnYefSuWNMCyLcoutq1Oh8ytVEdF36YThcbJQx7ZNBTGeGJUXDJZXyTgFpeoTPfdweP%2BlAITz6069yX4goZCio3gc1DsdICCQq9Nboj9UqUpQ%2Bywp1VmXt0kZu8fSGRXj4%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2Bs8jKNiyhBTEkxcZBGTmPA8quCBpXyLn7MOrOwIc9K7UhpyuphwxJwXhskG7b%2BW4hy6pTg4KZQymacEYs642R%2B3%2BC8fFDAJyg0waR1jy1EppMJKNvOlvCCD1MWzXnSpebKib3HRRTn6h7oB1tJEkTH5WmUu1nT90OVo4lXMDdsAzE%3D%7Ctkp%3ABk9SR9Lov8WjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -752,18 +750,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>de Lituânia</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -777,22 +775,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3d 5h restantes</t>
+          <t>4d 23h restantes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 Suprim X 24G   GDDR6X Grafikkarte</t>
+          <t>Novo anúncioINNO3D GeForce RTX 3090 iCHILL X4 24GB GDDR6X Scheda Grafica GPU</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BsqCM7knXS2y9GpWSg30DYYMe%2FS6QV%2FHeSaAkXaK1B0FkkAV2cq0ctWXqXkVmvdIO48ZCBSiPhMlPfGGDsnJh%2FPROPFne%2FJJ86zJOyStMpPZyuO16XB4pXE9tvAKKj48MZ9lYlorYxOxPIS6biwfclIeeNi6H1UCdmoKe4MmaxGHY%3D%7Ctkp%3ABk9SR6aCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FozvSLikzsI3YuieWbqLlqaYhgajvwUp%2F%2BS5wqAI3COXwDHBRhNbDaBePqgnw%2BGq9Oj6XTzI9VKBYSWKhQbpOdAb5BQOKFsME9knqQXoHuX6FaMl8zRGqMP1UKKagS%2FK4Vamj%2Bg%2B49anDeANKxSB7x48%2F50CVjeWnfRl36GzdLpgg%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -801,18 +799,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Itália</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -826,22 +824,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5d 3h restantes</t>
+          <t>2d restantes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Novo anúncioINNO3D GeForce RTX 3090 iCHILL X4 24GB GDDR6X Scheda Grafica GPU</t>
+          <t>MSI GeForce RTX 3090 VENTUS 3X OC 24GB GDDR6X Tarjeta Gráfica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FoP6ZkRubwvnjzJP6asE5gBx207vGPR5Q0GVBv4oaXYurFiuy%2FCkciNO0LIO6sEsE41IsD%2BRlD1cHXoZ8AQt%2Ba6Gsn%2BihLvWvh2t2mvUo12OB5ByjUjb5wQdDGeKmaBjXT56BsO8800B%2FBzF6mybTVxr97yiqcJYjK3N2buGmekp8%3D%7Ctkp%3ABk9SR6iCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLW9GUuO%2BdcJhpdyAQtpbx%2Bf2QSHLpbOMqqC80cYGGrQQm58uGzWamJP5tiBx%2BDO4AmPmeUi2VQCfL05a%2Fln2ifdPtZpG%2BgaX32noSyrtj%2FjHmofH3ZT3ylMH2Az%2Fnyl8wjZRBK00Nrk5lAuLXu5Gzi2noTkVtgMtc7LsxuAQhTus%3D%7Ctkp%3ABk9SR9Lov8WjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -850,18 +848,18 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>599</v>
+        <v>700</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>de Itália</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -875,42 +873,42 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2d 5h restantes</t>
+          <t>2d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 VENTUS 3X OC 24GB GDDR6X Tarjeta Gráfica</t>
+          <t>Novo anúncioNVIDIA EVGA GeForce RTX 3090 XC3 ULTRA GAMING, 24G-P5-3975-KR, 24GB GDDR6X</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtL8EPEhliYkzZtpL68vcxLpSvo7pzbwkteb%2FOSzHg6%2BrMg%2BP4LrSmfZiC0UWbgdsXi3e8%2FdlhoqpS%2FRfwkoexCDnQSoRolYPZW5F6xtSJHi5P59GNAzI%2BMszX%2ByINX62YZoWZfNEPVjOQzryPSwAQsBu7QOylrqmO2XjylR6ITTOc%3D%7Ctkp%3ABk9SR6aCuLWjYQ</t>
+          <t>https://www.ebay.com/itm/134369215903?epid=2312929985&amp;hash=item1f4907859f:g:A7AAAOSw47pjl5n4&amp;amdata=enc%3AAQAHAAAA4EJP%2FEx%2FXxtmltV%2F2NqDs%2FfQJJLrQ0TpG2iGQWXyZaui8lxbwOpTXD0nBjs6fp0nw7zbX8%2FMnXFZJRwzqPRdbJU%2BUCEmuoHwnbhgdc%2Bu5TEyn104IhzY1m3fxMYDr9ffxmIqzj8ArM05ywSrMc1TznTGDnKrjibqYo%2B4KedSmKGGvXWYmoS4qysTe%2FuiU79NAJy1lXFdDtmXiYu%2BeqkRvIeKKD1Nspdy6x9fNLPJsfUOcRdXKsih%2FqgIqj4xey1StnXKhjJsLiMUFrdQPO1gcSpK9tmBcaWxZ4njhuUfzHVT%7Ctkp%3ABk9SR9Tov8WjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo em folha</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -924,7 +922,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3d 2h restantes</t>
+          <t>2d 19h restantes</t>
         </is>
       </c>
     </row>

--- a/results/rtx 3090.xlsx
+++ b/results/rtx 3090.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiJ0Hi08CMmVRxcUjgtZk24Tp07LHJ5NjpEM%2FCXsFhh8bG8CpKWh1%2BQgzOuxI8ic68oqAqc2Pq50k%2FgpWvIHZC52OdojIEt6ztS06DGfgdNAAe%2BbBGJMp3KZCXT%2F98GpgRwLNNLkzexMX0fxIB0GATWzW2HchRWjXlVrP%2FSoXiXok%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
+          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiqXNXzT%2BwVkUxo5PH1gyMB%2FQjxHhiF82wp8xJC4694C25wfyQqKiL8IKeUJdxj7JG9KvjbW8p3oxaVlunrDNSXTLRl8d6PkGw7rVXmJru9KOowwleIzDQHzk9yDrari%2FS4%2FfT59s51zldzihUZIRJS7XDKQzCgdK0qh%2Bt%2BDEnBvg%3D%7Ctkp%3ABk9SR7Sb5cWjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,7 +536,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125665784206?epid=6040754547&amp;hash=item1d4243b18e:g:2uoAAOSwmpRjg4lj&amp;amdata=enc%3AAQAHAAAAoDhlaLm2H3jd8Zp36gW8SzxHTFTi6AUi%2FX4SQhEoSzYIRfs3IUfsFu1Txb7hh0k8spA71PcU%2BOK7GhfiSY9kcQb4rGEECTmKUJGLgt%2FXT2TuP%2BS4iL4f0dEVsH3kGUxfo0wIcyPxuCpygwcCLQNQ1p5VyyFQX8guGxLKms0k7%2B5euU054oOAiMVU3It%2B76QqA4KlUOX6o7my9yQ6yjLubFo%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
+          <t>https://www.ebay.com/itm/125665784206?epid=6040754547&amp;hash=item1d4243b18e:g:2uoAAOSwmpRjg4lj&amp;amdata=enc%3AAQAHAAAAoDhlaLm2H3jd8Zp36gW8SzxHTFTi6AUi%2FX4SQhEoSzYI%2B9MHMNB34MV0R6dxP8qYFj22aAZxfhT1CLXPI9jJ0Ci%2F2JIywXzcVSSt0Fmd0nSLfVV3Vf8mQNh2Rf1%2FPQIZ5BArGUVufv2CEst%2BzJ9UbnTzt1nM2lEh4XR7nI%2B85%2FNDlYiv7j9wylDAGwLQdmhh0OFANJSu5RAGp9WistPUsRs%3D%7Ctkp%3ABk9SR7ab5cWjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -585,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnF7AWmMucfLRp%2FA97Sdn0S2klZfgMwodKmuoGiA%2BddouYlwN%2FrVDbzht5qKMqE2jUsHFKqeDGM2vHnKiuqnmR%2FMfay5P2kfhV6CV68Xaqaa7UPi%2BMXGpSsezC9p52Ehgu9JZdqBzpA98bxO7ygnmPciRIDiokUQ9zqlyhuXFEhUqk%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
+          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901:g:-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFJmfUkACsp3kc8krgA0SK4Ccs9Q%2BZiaBMNLRMZIKkWGPg7WuFhDqxTL%2BQvSsY9wfaLA2rgZxeUJhTo90lU8Opakde7CzLUH0CwKUv9m171S9vDhCzueaXIzY0FA0W1TIkAtJHUTc81LAtmc1Tbo6r6Q12Cy6q7kGeiKtqfVgv%2FKs%3D%7Ctkp%3ABk9SR7Sb5cWjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -634,36 +634,36 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
+          <t>GeForce RTX 3090 Gaming OC 24G Grafikkarte Nicht LHR version!!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJj7MLdfsNLxZLpX2BcSVN9xG0alnuKbHD7jiXqQsy3LTdAyHiVc3LCIC9jzXvWNUvOnhv4DtAvRGunUs8RWnniUwijewN15VVfeBASGVfsG56JAp%2F%2FS2QmkkdXLbgQZxHqatxRwzKO%2F0xeh6YM0bGOCL4yWFbIjIg4qou996swu8%3D%7Ctkp%3ABk9SR9bov8WjYQ</t>
+          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWl%2Fj6sGdMgV9KHP0BZo1njvmiHv7btzMNwbIHCveBNoope9K267MVzTaj5%2Bn71%2BeIVzzMKwFpCH3KZipsb0N%2FO3SCzfe0xTXxENeccUCASshfAaCU%2F4SwKkvQIOwArt4hceiZgATC92zzzhg2cz4XuY39hJ9MnWius%2FRUsrDq79L4%3D%7Ctkp%3ABk9SR7Sb5cWjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>401</v>
+        <v>555</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Bulgária</t>
+          <t>de Lituânia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4d 16h restantes</t>
+          <t>3d restantes</t>
         </is>
       </c>
     </row>
@@ -687,12 +687,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GeForce RTX 3090 Gaming OC 24G Grafikkarte Nicht LHR version!!</t>
+          <t>MSI GeForce RTX 3090 Suprim X 24G   GDDR6X Grafikkarte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWl6iUZfL7kh92Mlt0vh%2FPuxnf8QgO7wN9txLGTA2w%2F3e3Urfe6lHo6WGrpSRF1NJz6pmOJv6IJsF4vgoFufzQf%2BkB97JJaLZS7nASicG13R9hstUX6BlTYyNWZwbiW8z0MDramAaTVv2R6S2BNxcHyq7ktl0C1jJJbY9u7QQml%2F2M%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
+          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BsOz7F0qklPUV3JPsFScY3XHoNDlm%2Fzub5gHDipUP0sRtnBeKM%2FDF5ctSvO%2By%2F4TJhurB1rPVKizAcBx3QTxOp%2Fv4FC7lGMfIP9N3770vy9lmzDRF3yjMIQCemOlyYCAtFkYfwi1Uek%2F%2BVAWBCgTZvwBEVtgYwc40tYr3BkjwZr0Q%3D%7Ctkp%3ABk9SR7Sb5cWjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -701,18 +701,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>de Lituânia</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -726,22 +726,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3d restantes</t>
+          <t>4d 23h restantes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 Suprim X 24G   GDDR6X Grafikkarte</t>
+          <t>Novo anúncioINNO3D GeForce RTX 3090 iCHILL X4 24GB GDDR6X Scheda Grafica GPU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22:g:E9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2Bs8jKNiyhBTEkxcZBGTmPA8quCBpXyLn7MOrOwIc9K7UhpyuphwxJwXhskG7b%2BW4hy6pTg4KZQymacEYs642R%2B3%2BC8fFDAJyg0waR1jy1EppMJKNvOlvCCD1MWzXnSpebKib3HRRTn6h7oB1tJEkTH5WmUu1nT90OVo4lXMDdsAzE%3D%7Ctkp%3ABk9SR9Lov8WjYQ</t>
+          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2Fo%2F%2FyxIACv92%2FPQT4%2FXdoEh3Li%2F2a9YGxkk4o1bfALvtG7oLRyHAvOBxjC3IxGW8e%2Bvx0T7vzBjpbXDZUXbZwgqdz6n31iRgA5fldh8wFnetYK%2BG8WaeDFOLlEbSxWDkx4kMwBRSwp3qklvjAjzPbAjPCR31bhZsPNVCykQUrZrzc%3D%7Ctkp%3ABk9SR7Sb5cWjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -750,18 +750,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Itália</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -775,22 +775,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4d 23h restantes</t>
+          <t>2d restantes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Novo anúncioINNO3D GeForce RTX 3090 iCHILL X4 24GB GDDR6X Scheda Grafica GPU</t>
+          <t>MSI GeForce RTX 3090 VENTUS 3X OC 24GB GDDR6X Tarjeta Gráfica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/334666483463?epid=7044894186&amp;hash=item4debad4707:g:LSsAAOSwS4BjmgBp&amp;amdata=enc%3AAQAHAAAAoLPv%2BvWaHQyF5NNDy6%2Fcw1loBQ%2Fyb%2FvoVN6GuPXWWy%2FozvSLikzsI3YuieWbqLlqaYhgajvwUp%2F%2BS5wqAI3COXwDHBRhNbDaBePqgnw%2BGq9Oj6XTzI9VKBYSWKhQbpOdAb5BQOKFsME9knqQXoHuX6FaMl8zRGqMP1UKKagS%2FK4Vamj%2Bg%2B49anDeANKxSB7x48%2F50CVjeWnfRl36GzdLpgg%3D%7Ctkp%3ABk9SR9Tov8WjYQ</t>
+          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtL6XZGBAqR2YobMfDL9zIvpTGNLBgW%2BLfxQ6yGOT72XcDW8ZHe2VmUPC8aHkHbdwC17SqNhHYH5KRz8s%2F8M9b%2FYaO76OkkBTEG2GnsgZBNWy84uVHR96xp747q0A%2Flya3RBG5m7eBRRUqIo1MBfn3gsIb4f6mD2Yk0g%2FSZ0CTw4cU%3D%7Ctkp%3ABk9SR7Sb5cWjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,18 +799,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>de Itália</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>639</v>
+        <v>760</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -824,42 +824,42 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2d restantes</t>
+          <t>2d 21h restantes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3090 VENTUS 3X OC 24GB GDDR6X Tarjeta Gráfica</t>
+          <t>Novo anúncioNVIDIA EVGA GeForce RTX 3090 XC3 ULTRA GAMING, 24G-P5-3975-KR, 24GB GDDR6X</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea:g:dKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLW9GUuO%2BdcJhpdyAQtpbx%2Bf2QSHLpbOMqqC80cYGGrQQm58uGzWamJP5tiBx%2BDO4AmPmeUi2VQCfL05a%2Fln2ifdPtZpG%2BgaX32noSyrtj%2FjHmofH3ZT3ylMH2Az%2Fnyl8wjZRBK00Nrk5lAuLXu5Gzi2noTkVtgMtc7LsxuAQhTus%3D%7Ctkp%3ABk9SR9Lov8WjYQ</t>
+          <t>https://www.ebay.com/itm/134369215903?epid=2312929985&amp;hash=item1f4907859f:g:A7AAAOSw47pjl5n4&amp;amdata=enc%3AAQAHAAAA4EJP%2FEx%2FXxtmltV%2F2NqDs%2FfQJJLrQ0TpG2iGQWXyZaui8lxbwOpTXD0nBjs6fp0nw7zbX8%2FMnXFZJRwzqPRdbJU%2BUCEmuoHwnbhgdc%2Bu5TEyn104IhzY1m3fxMYDr9ffxhqYtHchF0ubPs3gbCpeTr%2Fet198qwm%2FKR8a1hmv9qkMjlPXmjN82PoN6iICS7nMCYIwzSKz0qQHZpWJuUP7WCz9GSEAChb2AmAO4ony%2FyfBj1xU7EmkxkWawAhZzqSRpyKYigjFgqURncr3XtRllEK82Wrv3ey%2BiwhvhEzizUH%2B%7Ctkp%3ABk9SR7ab5cWjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo em folha</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -872,55 +872,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>2d 22h restantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Novo anúncioNVIDIA EVGA GeForce RTX 3090 XC3 ULTRA GAMING, 24G-P5-3975-KR, 24GB GDDR6X</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/134369215903?epid=2312929985&amp;hash=item1f4907859f:g:A7AAAOSw47pjl5n4&amp;amdata=enc%3AAQAHAAAA4EJP%2FEx%2FXxtmltV%2F2NqDs%2FfQJJLrQ0TpG2iGQWXyZaui8lxbwOpTXD0nBjs6fp0nw7zbX8%2FMnXFZJRwzqPRdbJU%2BUCEmuoHwnbhgdc%2Bu5TEyn104IhzY1m3fxMYDr9ffxmIqzj8ArM05ywSrMc1TznTGDnKrjibqYo%2B4KedSmKGGvXWYmoS4qysTe%2FuiU79NAJy1lXFdDtmXiYu%2BeqkRvIeKKD1Nspdy6x9fNLPJsfUOcRdXKsih%2FqgIqj4xey1StnXKhjJsLiMUFrdQPO1gcSpK9tmBcaWxZ4njhuUfzHVT%7Ctkp%3ABk9SR9Tov8WjYQ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Novo em folha</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>743</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>de Alemanha</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>43</v>
-      </c>
-      <c r="H10" t="n">
-        <v>786</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>No other purchase options</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2d 19h restantes</t>
         </is>
